--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_VNPTHaiDuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_VNPTHaiDuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,9 +631,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,6 +661,30 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,31 +697,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,15 +1006,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" topLeftCell="F3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="71" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
@@ -1042,43 +1039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1099,8 +1096,8 @@
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1123,99 +1120,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="62" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,14 +1263,14 @@
         <v>36</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="63"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1297,12 +1294,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="63"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1326,12 +1323,12 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="63"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1355,12 +1352,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="63"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1384,18 +1381,18 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
@@ -1413,19 +1410,19 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
       <c r="F12" s="38"/>
@@ -1442,21 +1439,21 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="T12" s="63"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
@@ -1473,19 +1470,19 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="63"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -1502,19 +1499,19 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
@@ -1532,21 +1529,21 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
       <c r="I16" s="57"/>
@@ -1561,18 +1558,18 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
@@ -1590,16 +1587,16 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="63"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
@@ -1625,8 +1622,8 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
@@ -1644,7 +1641,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="62" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1656,8 +1653,8 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
@@ -1688,8 +1685,8 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
@@ -1720,8 +1717,8 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
@@ -1752,8 +1749,8 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
@@ -1779,8 +1776,8 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
@@ -1806,8 +1803,8 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
@@ -1825,7 +1822,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="63" t="s">
+      <c r="U25" s="62" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -1837,8 +1834,8 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
@@ -1869,8 +1866,8 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
@@ -1901,8 +1898,8 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
       <c r="F28" s="38"/>
@@ -1933,8 +1930,8 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
       <c r="F29" s="38"/>
@@ -1965,8 +1962,8 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
@@ -1997,8 +1994,8 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
@@ -2029,8 +2026,8 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
@@ -2061,8 +2058,8 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
@@ -2093,8 +2090,8 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="10"/>
@@ -2125,8 +2122,8 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
@@ -2157,8 +2154,8 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
@@ -2189,8 +2186,8 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="10"/>
@@ -2221,8 +2218,8 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
@@ -2248,8 +2245,8 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="10"/>
@@ -2275,8 +2272,8 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="10"/>
@@ -2307,8 +2304,8 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
@@ -2339,8 +2336,8 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
@@ -2366,8 +2363,8 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
@@ -2393,8 +2390,8 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10"/>
@@ -2429,8 +2426,8 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10"/>
@@ -2468,8 +2465,8 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="10"/>
@@ -2507,8 +2504,8 @@
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="10"/>
@@ -2546,8 +2543,8 @@
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
@@ -2588,8 +2585,8 @@
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
@@ -2616,8 +2613,8 @@
       <c r="A50" s="29">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="46"/>
       <c r="E50" s="31"/>
       <c r="F50" s="46"/>
@@ -2644,8 +2641,8 @@
       <c r="A51" s="4">
         <v>46</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="10"/>
@@ -2672,8 +2669,8 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
@@ -2700,8 +2697,8 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -2728,8 +2725,8 @@
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
@@ -2756,8 +2753,8 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
@@ -2792,6 +2789,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2803,13 +2807,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2820,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,43 +2850,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2934,58 +2931,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -3010,49 +3007,75 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44341</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="39">
+        <v>862631034708817</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3083,7 +3106,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3112,7 +3135,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3141,7 +3164,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3170,7 +3193,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3199,7 +3222,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3228,7 +3251,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3259,7 +3282,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3288,7 +3311,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3317,7 +3340,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3369,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3465,7 +3488,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3902,7 +3925,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3998,7 +4021,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4577,13 +4600,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4595,6 +4611,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
